--- a/data/income_statement/3digits/total/476_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/476_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>476-Retail sale of cultural and recreation goods in specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>476-Retail sale of cultural and recreation goods in specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2700136.28382</v>
@@ -959,34 +865,39 @@
         <v>3757505.16925</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4390493.77551</v>
+        <v>4392189.978479999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4793639.89277</v>
+        <v>4869581.991850001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5833428.74609</v>
+        <v>5837570.65993</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7048661.537679999</v>
+        <v>7083031.492140001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7724820.71018</v>
+        <v>7899504.13616</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9709333.83502</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10307745.80956</v>
+        <v>10323638.92346</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11815116.95549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11890751.39562</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12607988.094</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2621211.57388</v>
@@ -998,34 +909,39 @@
         <v>3642762.51738</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4241898.83842</v>
+        <v>4243595.04139</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4597187.75008</v>
+        <v>4673096.605350001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5576430.0139</v>
+        <v>5580566.712200001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6763220.37857</v>
+        <v>6797167.89041</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7369605.81802</v>
+        <v>7541728.606229999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9211459.4232</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9891526.468490001</v>
+        <v>9906517.725639999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11286967.68751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11361739.74979</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11845199.452</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>42539.63241</v>
@@ -1043,28 +959,33 @@
         <v>114528.94908</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>169969.38705</v>
+        <v>169974.60259</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>169179.15148</v>
+        <v>169209.62398</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>188550.002</v>
+        <v>190009.4937</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>281744.23906</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>189993.87343</v>
+        <v>190741.33222</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>279642.71385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>280232.64226</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>502335.387</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>36385.07753</v>
@@ -1073,37 +994,42 @@
         <v>53226.85283</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>60198.85235</v>
+        <v>60198.85235000001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>68493.02831000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>81923.19361</v>
+        <v>81956.43741999999</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>87029.34514</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>116262.00763</v>
+        <v>116653.97775</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>166664.89016</v>
+        <v>167766.03623</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>216130.17276</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>226225.46764</v>
+        <v>226379.8656</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>248506.55413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>248779.00357</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>260453.255</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>115821.51944</v>
@@ -1118,34 +1044,39 @@
         <v>174972.0586</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>218192.87153</v>
+        <v>223499.08922</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>312285.18784</v>
+        <v>312289.7177799999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>377988.53026</v>
+        <v>379403.16347</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>445353.8589499999</v>
+        <v>464166.54708</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>579487.9564299999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>619978.5617999999</v>
+        <v>620101.19253</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>760354.4063699999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>760980.37034</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>910750.35</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>67716.88796000001</v>
+        <v>67716.88795999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>75529.07911000001</v>
@@ -1157,55 +1088,60 @@
         <v>114623.94978</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>133720.6565</v>
+        <v>138959.01894</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>181649.18434</v>
+        <v>181653.71428</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>210811.26317</v>
+        <v>212193.85847</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>252552.45109</v>
+        <v>261039.52098</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>302306.54747</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>334341.68495</v>
+        <v>334463.6454099999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>389801.49798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>390157.2655399999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>459572.94</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>46841.31168000001</v>
+        <v>46841.31168</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>37711.62854</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>50778.63517999999</v>
+        <v>50778.63518</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>57929.11888</v>
+        <v>57929.11887999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>80962.63026999999</v>
+        <v>81030.48552</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>128449.86385</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>164813.82551</v>
+        <v>164845.82704</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>188615.40085</v>
+        <v>198685.37311</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>248729.64754</v>
@@ -1214,19 +1150,24 @@
         <v>277592.77502</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>363905.16929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>364175.34772</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>445058.466</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1263.3198</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>785.2613800000001</v>
+        <v>785.2613799999999</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>1104.63843</v>
@@ -1241,25 +1182,30 @@
         <v>2186.13965</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2363.44158</v>
+        <v>2363.47796</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4186.007009999999</v>
+        <v>4441.652990000001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>28451.76142</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8044.101830000001</v>
+        <v>8044.7721</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6647.7391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6647.75708</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6118.944</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2584314.76438</v>
@@ -1271,34 +1217,39 @@
         <v>3610178.15823</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4215521.71691</v>
+        <v>4217217.91988</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4575447.02124</v>
+        <v>4646082.902629999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5521143.55825</v>
+        <v>5525280.94215</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6670673.00742</v>
+        <v>6703628.32867</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7279466.851229999</v>
+        <v>7435337.58908</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>9129845.878590001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9687767.24776</v>
+        <v>9703537.730930001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11054762.54912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11129771.02528</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11697237.744</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2001580.98079</v>
@@ -1310,34 +1261,39 @@
         <v>2748384.57234</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3197458.89382</v>
+        <v>3198995.94475</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3404426.14896</v>
+        <v>3448266.57851</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4124683.92215</v>
+        <v>4128288.86736</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4963704.65639</v>
+        <v>4992724.05328</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5427959.96474</v>
+        <v>5523547.15198</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6735799.52131</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7032788.52216</v>
+        <v>7047184.769290001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7864713.220300001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7928210.26871</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8613658.941</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>70591.41365999999</v>
@@ -1349,19 +1305,19 @@
         <v>83746.40349000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>77479.01007</v>
+        <v>78682.92565999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>88711.82013999998</v>
+        <v>88781.95216</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>107531.85744</v>
+        <v>107630.63922</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>538568.6034499999</v>
+        <v>538600.62075</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>165232.13336</v>
+        <v>165449.47252</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>268653.01598</v>
@@ -1370,13 +1326,18 @@
         <v>287529.92013</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>314807.28903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>314819.22938</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>403801.106</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1867473.72261</v>
@@ -1388,43 +1349,48 @@
         <v>2588121.42353</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3012994.52841</v>
+        <v>3013327.66375</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3203912.69969</v>
+        <v>3247682.99722</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3871630.67449</v>
+        <v>3874979.27154</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4237867.59942</v>
+        <v>4265948.84238</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5058251.43612</v>
+        <v>5153497.35597</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>6092002.499899999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6520034.535210001</v>
+        <v>6533142.24157</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7278259.04372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7339818.72449</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7967849.101</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>61328.43339999999</v>
+        <v>61328.43340000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>60815.91169</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>74893.31604000001</v>
+        <v>74893.31603999999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>104496.73441</v>
@@ -1433,28 +1399,33 @@
         <v>106638.9891</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>141549.04878</v>
+        <v>141706.61516</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>181799.12004</v>
+        <v>182248.18548</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>198357.95338</v>
+        <v>198345.38854</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>367263.61799</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>209025.643</v>
+        <v>210312.98007</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>230520.62128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>232446.04267</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>208188.818</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2187.41112</v>
@@ -1475,103 +1446,118 @@
         <v>3972.34144</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5469.33348</v>
+        <v>5926.40467</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6118.44188</v>
+        <v>6254.93495</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7880.38744</v>
+        <v>7880.387440000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>16198.42382</v>
+        <v>16199.62752</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>41126.26626999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>41126.27217</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>33819.916</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>582733.78359</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>702800.0785100001</v>
+        <v>702800.0785099999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>861793.5858900001</v>
+        <v>861793.5858899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1018062.82309</v>
+        <v>1018221.97513</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1171020.87228</v>
+        <v>1197816.32412</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1396459.6361</v>
+        <v>1396992.07479</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1706968.35103</v>
+        <v>1710904.27539</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1851506.88649</v>
+        <v>1911790.4371</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2394046.35728</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2654978.7256</v>
+        <v>2656352.96164</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3190049.32882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3201560.75657</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3083578.803</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>526465.0629499999</v>
+        <v>526465.0629500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>622832.3245699999</v>
+        <v>622832.3245700001</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>758717.92648</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>902925.7398099999</v>
+        <v>903097.3282399999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1062241.87802</v>
+        <v>1086412.22951</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1275046.08284</v>
+        <v>1275545.84451</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1503859.68711</v>
+        <v>1508656.51481</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1696139.12169</v>
+        <v>1744776.10747</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2128520.23392</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2457654.90581</v>
+        <v>2461613.32548</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2779947.66985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2802053.66025</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2673737.482</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>91.86444999999999</v>
@@ -1583,7 +1569,7 @@
         <v>416.48943</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2506.743539999999</v>
+        <v>2506.74354</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>2130.77294</v>
@@ -1604,13 +1590,18 @@
         <v>4727.206899999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3822.36003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3822.46683</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4348.527</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>309894.71438</v>
@@ -1625,70 +1616,80 @@
         <v>534873.97145</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>645655.64818</v>
+        <v>667350.4489900001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>782519.86893</v>
+        <v>782635.2220399999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>925263.9051800001</v>
+        <v>926502.48338</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1058322.5134</v>
+        <v>1096385.38202</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1358261.85079</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1531314.27421</v>
+        <v>1531656.13343</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1707389.36897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1712259.7117</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1586182.181</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>216478.48412</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>270016.7652199999</v>
+        <v>270016.76522</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>319810.36609</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>365545.02482</v>
+        <v>365716.61325</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>414455.4569</v>
+        <v>416931.0075799999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>490224.53503</v>
+        <v>490608.94359</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>575601.70369</v>
+        <v>579159.95319</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>634978.5814</v>
+        <v>645552.6985599999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>766830.03119</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>921613.4247000001</v>
+        <v>925229.9851500001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1068735.94085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1085971.48172</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1083206.774</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>56268.72064</v>
@@ -1700,79 +1701,89 @@
         <v>103075.65941</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>115137.08328</v>
+        <v>115124.64689</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>108778.99426</v>
+        <v>111404.09461</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>121413.55326</v>
+        <v>121446.23028</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>203108.66392</v>
+        <v>202247.76058</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>155367.7648</v>
+        <v>167014.32963</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>265526.12336</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>197323.81979</v>
+        <v>194739.63616</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>410101.65897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>399507.09632</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>409841.321</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>40718.83124</v>
+        <v>40718.83123999999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>33887.30976999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>43480.51327999999</v>
+        <v>43480.51328</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>63345.98225</v>
+        <v>63347.08525</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>58011.30351</v>
+        <v>58752.26155999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>94809.13558000002</v>
+        <v>94883.72349999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>105226.30727</v>
+        <v>105317.59669</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>102065.89731</v>
+        <v>104322.84227</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>148833.75482</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>535906.32458</v>
+        <v>536808.5322200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>208432.64181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>212095.44302</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>272960.901</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>710.9561600000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>870.5455299999999</v>
+        <v>870.54553</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>871.24721</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.05302</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3480.8663</v>
@@ -1856,37 +1877,42 @@
         <v>5711.266820000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8415.90473</v>
+        <v>8417.007730000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7035.44218</v>
+        <v>7041.73632</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>8349.963740000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9558.43067</v>
+        <v>9558.951090000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>9290.73511</v>
+        <v>10131.35578</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>21283.68967</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21309.3639</v>
+        <v>21459.49843</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26347.76032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>26478.31831999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>26345.986</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>943.3175399999999</v>
+        <v>943.31754</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>1959.69615</v>
@@ -1895,40 +1921,45 @@
         <v>885.50638</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>820.9203100000001</v>
+        <v>820.92031</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>925.2087300000001</v>
+        <v>925.2087299999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1136.39135</v>
+        <v>1208.86032</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2570.67901</v>
+        <v>2647.80093</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2216.17157</v>
+        <v>2457.85716</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>1984.31954</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1046.30833</v>
+        <v>1046.66458</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1215.70303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1363.31305</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1751.182</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>516.6332600000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>336.99509</v>
+        <v>336.9950899999999</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1388.53895</v>
@@ -1937,7 +1968,7 @@
         <v>475.91214</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>308.77192</v>
+        <v>347.51049</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>360.87646</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>3074.58127</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3420.461</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>214.41706</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>87.44315999999999</v>
+        <v>87.44316000000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>107.64833</v>
@@ -1979,13 +2015,13 @@
         <v>6186.334059999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>307.5188000000001</v>
+        <v>307.5188</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>358.42016</v>
+        <v>358.52384</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>685.2599299999999</v>
+        <v>685.5169599999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1367.38589</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1817.03941</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4142.318</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>24130.09561</v>
@@ -2015,31 +2056,36 @@
         <v>19848.96231</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>19168.79496</v>
+        <v>19209.15058</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23122.80296</v>
+        <v>23124.92191</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>50959.43885000001</v>
+        <v>50970.45062</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>32039.72386</v>
+        <v>33017.5796</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>47274.85985</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>412463.89082</v>
+        <v>412802.04494</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>60016.48744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>62207.43648999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>157974.268</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>17.66525</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>28.864</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.49205</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>3.559</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10704.82704</v>
@@ -2132,31 +2188,36 @@
         <v>19314.17955</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>22059.32514</v>
+        <v>22714.89486</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>59566.98026</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>38520.62557</v>
+        <v>38523.1572</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>53079.92238</v>
+        <v>53276.44831</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>70914.94615</v>
+        <v>70914.94614999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>96553.09342</v>
+        <v>96966.65616</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>115744.57829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>116938.26243</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>79078.26300000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>32606.84963</v>
@@ -2171,31 +2232,36 @@
         <v>21318.11909</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>44802.21151000001</v>
+        <v>44999.20757999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>38450.38114</v>
+        <v>38471.25585</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>80692.17206</v>
+        <v>80736.48297</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>60821.60137</v>
+        <v>65716.18191</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>76054.00049999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>239653.35516</v>
+        <v>240078.42079</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>110473.47892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>115105.42319</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>201562.791</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1744.23866</v>
@@ -2216,25 +2282,30 @@
         <v>2840.7071</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2733.47839</v>
+        <v>2776.37364</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2238.13024</v>
+        <v>2421.21154</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>2884.58386</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3531.66409</v>
+        <v>3542.74053</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5071.21641</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5514.69073</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11055.153</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2495.47756</v>
@@ -2249,7 +2320,7 @@
         <v>4714.52246</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1693.87295</v>
+        <v>1697.38295</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>4992.25785</v>
@@ -2258,7 +2329,7 @@
         <v>6546.43065</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8790.53793</v>
+        <v>9021.217790000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>4401.53014</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>10292.20235</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4540.13</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6037.37417</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>4.66256</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>267.236</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>19925.07459</v>
@@ -2327,31 +2408,36 @@
         <v>11424.12056</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37783.80967</v>
+        <v>37790.32257</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>26157.37443</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>63886.23013</v>
+        <v>63886.48036</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>40290.55764</v>
+        <v>44594.88890000001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>55406.40023000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>176095.95452</v>
+        <v>176509.15823</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>90671.37908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>94743.62093</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>176592.611</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1443.67481</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>7.06705</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>145.005</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>7.495220000000001</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>953.51462</v>
+        <v>953.5146200000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>1243.65632</v>
@@ -2444,31 +2540,36 @@
         <v>1828.04106</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1901.27594</v>
+        <v>2088.24911</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3495.26447</v>
+        <v>3516.13918</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7138.52526</v>
+        <v>7139.690689999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7812.43555</v>
+        <v>7988.92367</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>11444.10663</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>18036.91136</v>
+        <v>18037.69684</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4426.95147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4543.17957</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8961.902</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>55368.40588000001</v>
@@ -2480,73 +2581,83 @@
         <v>60725.79998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>73519.5959</v>
+        <v>73531.63481</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>71512.5552</v>
+        <v>74138.80439</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>100088.50741</v>
+        <v>100109.54559</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>116123.9434</v>
+        <v>116478.80221</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>149412.96781</v>
+        <v>152691.80639</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>197658.30603</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>762422.5756100001</v>
+        <v>762501.6081699999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>337881.88249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>338316.57257</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>230879.068</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>52670.94308999999</v>
+        <v>52670.94309</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>45034.40992999999</v>
+        <v>45034.40993</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>57931.37092</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>71397.52659000001</v>
+        <v>71409.5655</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>68738.10975</v>
+        <v>71364.35893999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>97151.71997000001</v>
+        <v>97172.75815000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>113462.43945</v>
+        <v>113817.29826</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>145750.4225</v>
+        <v>149029.26108</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>189350.29014</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>751338.36577</v>
+        <v>751417.3983299999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>327104.86644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>327536.2872199999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>221264.247</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2697.46279</v>
@@ -2564,7 +2675,7 @@
         <v>2774.44545</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2936.78744</v>
+        <v>2936.787440000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>2661.50395</v>
@@ -2579,52 +2690,62 @@
         <v>11084.20984</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>10777.01605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>10780.28535</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9614.821</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9012.296370000004</v>
+        <v>9012.296370000002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>54878.53697000001</v>
+        <v>54878.53697</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>52263.38356</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>83645.35053999998</v>
+        <v>83621.97824</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>50475.53106</v>
+        <v>51018.3442</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>77683.80028999998</v>
+        <v>77749.15234</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>111518.85573</v>
+        <v>110350.07209</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>47199.09293</v>
+        <v>52929.1836</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>140647.57165</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-268845.7864</v>
+        <v>-271031.86058</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>170178.93937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>158180.54358</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>250360.363</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>11879.09014</v>
@@ -2639,31 +2760,36 @@
         <v>12069.60927</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>14123.60192</v>
+        <v>14749.76524</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>19416.64724</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>32070.23659</v>
+        <v>32324.01806</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>37033.77869</v>
+        <v>40998.11040999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>41025.26398999999</v>
+        <v>41025.26399</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>84196.20315999999</v>
+        <v>84258.31359000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>47121.13372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>47539.91333</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>61488.253</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>34.76967</v>
@@ -2684,10 +2810,10 @@
         <v>40.95762999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>48.89179</v>
+        <v>49.89538</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>165.32362</v>
+        <v>165.65105</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>400.70926</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>396.13638</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1101.702</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11844.32047</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7616.488409999999</v>
+        <v>7616.48841</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>11412.76463</v>
@@ -2717,31 +2848,36 @@
         <v>11966.14858</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14072.85991</v>
+        <v>14699.02323</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>19375.68961</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>32021.3448</v>
+        <v>32274.12268</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>36868.45507</v>
+        <v>40832.45936</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>40624.55473</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>83422.60010000001</v>
+        <v>83484.71053000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>46724.99734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>47143.77695</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>60386.551</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13218.10154</v>
@@ -2753,34 +2889,39 @@
         <v>52291.74108</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>16766.3968</v>
+        <v>16766.78976</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>21022.30556</v>
+        <v>21080.4825</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>53219.99145</v>
+        <v>53220.56019999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>30839.95165</v>
+        <v>30880.57951</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>58466.24315</v>
+        <v>62156.42782</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>63579.94063</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>120243.30511</v>
+        <v>120385.92648</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>74340.41795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>75447.30970999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>80052.38800000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>160.91003</v>
@@ -2792,7 +2933,7 @@
         <v>170.48722</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>392.63132</v>
+        <v>392.6313200000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>227.55586</v>
@@ -2813,13 +2954,18 @@
         <v>101.91939</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>203.13005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>211.76382</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>808.471</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>320.84737</v>
@@ -2828,7 +2974,7 @@
         <v>6862.670700000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7812.847680000001</v>
+        <v>7812.84768</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>406.56874</v>
@@ -2840,10 +2986,10 @@
         <v>3423.82057</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1526.4289</v>
+        <v>1528.42501</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2428.2448</v>
+        <v>2430.43588</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2520.02589</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>1837.52497</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1953.702</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>12736.34414</v>
@@ -2870,73 +3021,83 @@
         <v>44308.40618</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>15967.19674</v>
+        <v>15967.5897</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>18954.50546</v>
+        <v>19012.6824</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>49595.51092</v>
+        <v>49596.07967</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>29238.18151</v>
+        <v>29276.81326</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55768.3027</v>
+        <v>59456.29629000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>60871.07212</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>116284.26734</v>
+        <v>116426.88871</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>72299.76293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>73398.02092</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>77290.215</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>7673.284970000002</v>
+        <v>7673.284970000004</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>44900.70028999999</v>
+        <v>44900.70029</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>11681.66768</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>78948.56300999998</v>
+        <v>78924.79775</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>43576.82742</v>
+        <v>44687.62693999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>43880.45608</v>
+        <v>43945.23937999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>112749.14067</v>
+        <v>111793.51064</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>25766.62847</v>
+        <v>31770.86619</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>118092.89501</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-304892.88835</v>
+        <v>-307159.47347</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>142959.65514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>130273.1472</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>231796.228</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11180.40393</v>
@@ -2951,34 +3112,39 @@
         <v>24980.23608</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>23996.32124</v>
+        <v>24243.16926999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>28651.6972</v>
+        <v>28655.16224</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>44921.31666</v>
+        <v>44948.69756</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35420.32401</v>
+        <v>38379.55199</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>51095.87671</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>44748.04605999999</v>
+        <v>44831.67732</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>65427.45337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>65755.36395</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>100624.923</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-3507.118959999999</v>
+        <v>-3507.118959999993</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>29564.5488</v>
@@ -2987,31 +3153,34 @@
         <v>-6436.27983</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>53968.32693000001</v>
+        <v>53944.56167</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>19580.50618</v>
+        <v>20444.45767</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>15228.75888</v>
+        <v>15290.07714</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>67827.82401000001</v>
+        <v>66844.81307999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-9653.695539999999</v>
+        <v>-6608.685799999997</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>66997.0183</v>
+        <v>66997.01830000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-349640.93441</v>
+        <v>-351991.15079</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>77532.20177000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>64517.78325</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>131171.305</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2668</v>
@@ -3041,31 +3213,34 @@
         <v>2699</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2689</v>
+        <v>2694</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2680</v>
+        <v>2687</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2672</v>
+        <v>2693</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2669</v>
+        <v>2688</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2734</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2488</v>
+        <v>2677</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2731</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>